--- a/setting/select_apk_package.xlsx
+++ b/setting/select_apk_package.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Y_Script\rubbish_draft\all_app_charater\NLS_Tools\setting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Y_Script_New\NLS_Tools\setting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E46E1D2-218B-42C3-8205-92AA007B70DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DDBF42-F2B8-4A46-9550-9D9E86CC15AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="620" windowWidth="17580" windowHeight="9580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="applist" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">applist!$A$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">applist!$A$2:$D$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="688">
   <si>
     <t>select</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -818,9 +818,6 @@
     <t>HTML 查看程序</t>
   </si>
   <si>
-    <t>同花顺</t>
-  </si>
-  <si>
     <t>uceShimService</t>
   </si>
   <si>
@@ -839,15 +836,6 @@
     <t>com.github.uiautomator.test</t>
   </si>
   <si>
-    <t>美图秀秀</t>
-  </si>
-  <si>
-    <t>APK提取器 Lite</t>
-  </si>
-  <si>
-    <t>抖音极速版</t>
-  </si>
-  <si>
     <t>vendor.qti.hardware.cacert.server</t>
   </si>
   <si>
@@ -1097,9 +1085,6 @@
     <t>CaptivePortalLogin</t>
   </si>
   <si>
-    <t>企业微信</t>
-  </si>
-  <si>
     <t>X-Divert设置</t>
   </si>
   <si>
@@ -1154,9 +1139,6 @@
     <t>录屏</t>
   </si>
   <si>
-    <t>网易有道词典</t>
-  </si>
-  <si>
     <t>密钥链</t>
   </si>
   <si>
@@ -1229,9 +1211,6 @@
     <t>Google Play 电影</t>
   </si>
   <si>
-    <t>网易新闻</t>
-  </si>
-  <si>
     <t>TB_8505X_LTR</t>
   </si>
   <si>
@@ -1310,21 +1289,12 @@
     <t>SetupWizardExt</t>
   </si>
   <si>
-    <t>去哪儿旅行</t>
-  </si>
-  <si>
     <t>Squircle</t>
   </si>
   <si>
-    <t>雪球</t>
-  </si>
-  <si>
     <t>Smart English</t>
   </si>
   <si>
-    <t>腾讯新闻</t>
-  </si>
-  <si>
     <t>Appium Android Input Manager for Unicode</t>
   </si>
   <si>
@@ -1349,9 +1319,6 @@
     <t>com.qualcomm.qti.uim</t>
   </si>
   <si>
-    <t>京东</t>
-  </si>
-  <si>
     <t>Google Play 图书</t>
   </si>
   <si>
@@ -1364,9 +1331,6 @@
     <t>com.android.cts.ctsshim</t>
   </si>
   <si>
-    <t>钉钉</t>
-  </si>
-  <si>
     <t>com.qualcomm.qti.uimGbaApp</t>
   </si>
   <si>
@@ -1388,9 +1352,6 @@
     <t>Keep 笔记</t>
   </si>
   <si>
-    <t>微博</t>
-  </si>
-  <si>
     <t>移动数据</t>
   </si>
   <si>
@@ -1445,9 +1406,6 @@
     <t>关机闹钟</t>
   </si>
   <si>
-    <t>地铁跑酷</t>
-  </si>
-  <si>
     <t>LTE Broadcast Manager</t>
   </si>
   <si>
@@ -1460,9 +1418,6 @@
     <t>系统跟踪</t>
   </si>
   <si>
-    <t>手机淘宝</t>
-  </si>
-  <si>
     <t>智能导航</t>
   </si>
   <si>
@@ -1604,9 +1559,6 @@
     <t>com.android.htmlviewer</t>
   </si>
   <si>
-    <t>com.hexin.plat.android</t>
-  </si>
-  <si>
     <t>com.qualcomm.qti.uceShimService</t>
   </si>
   <si>
@@ -1619,15 +1571,6 @@
     <t>com.android.providers.downloads</t>
   </si>
   <si>
-    <t>com.mt.mtxx.mtxx</t>
-  </si>
-  <si>
-    <t>com.zhanhong.apkextractor</t>
-  </si>
-  <si>
-    <t>com.ss.android.ugc.aweme.lite</t>
-  </si>
-  <si>
     <t>com.android.theme.icon_pack.rounded.android</t>
   </si>
   <si>
@@ -1823,9 +1766,6 @@
     <t>com.android.theme.icon_pack.circular.settings</t>
   </si>
   <si>
-    <t>com.tencent.wework</t>
-  </si>
-  <si>
     <t>com.qti.xdivert</t>
   </si>
   <si>
@@ -1871,9 +1811,6 @@
     <t>com.lenovo.screencapture</t>
   </si>
   <si>
-    <t>com.youdao.dict</t>
-  </si>
-  <si>
     <t>com.android.keychain</t>
   </si>
   <si>
@@ -1931,9 +1868,6 @@
     <t>com.google.android.videos</t>
   </si>
   <si>
-    <t>com.netease.newsreader.activity</t>
-  </si>
-  <si>
     <t>com.example.ltrtest</t>
   </si>
   <si>
@@ -2000,21 +1934,12 @@
     <t>com.tblenovo.setup</t>
   </si>
   <si>
-    <t>com.Qunar</t>
-  </si>
-  <si>
     <t>com.android.theme.icon.squircle</t>
   </si>
   <si>
-    <t>com.xueqiu.android</t>
-  </si>
-  <si>
     <t>com.ef.core.engage.smartenglish</t>
   </si>
   <si>
-    <t>com.tencent.news</t>
-  </si>
-  <si>
     <t>io.appium.android.ime</t>
   </si>
   <si>
@@ -2027,9 +1952,6 @@
     <t>com.android.settings</t>
   </si>
   <si>
-    <t>com.jingdong.app.mall</t>
-  </si>
-  <si>
     <t>com.android.theme.icon_pack.filled.launcher</t>
   </si>
   <si>
@@ -2042,9 +1964,6 @@
     <t>com.qualcomm.location</t>
   </si>
   <si>
-    <t>com.alibaba.android.rimet</t>
-  </si>
-  <si>
     <t>com.android.theme.icon_pack.circular.launcher</t>
   </si>
   <si>
@@ -2066,9 +1985,6 @@
     <t>com.google.android.keep</t>
   </si>
   <si>
-    <t>com.sina.weibo</t>
-  </si>
-  <si>
     <t>com.android.phone</t>
   </si>
   <si>
@@ -2126,9 +2042,6 @@
     <t>com.qualcomm.qti.poweroffalarm</t>
   </si>
   <si>
-    <t>com.kiloo.subwaysurf</t>
-  </si>
-  <si>
     <t>com.qti.ltebc</t>
   </si>
   <si>
@@ -2136,9 +2049,6 @@
   </si>
   <si>
     <t>com.android.traceur</t>
-  </si>
-  <si>
-    <t>com.taobao.taobao</t>
   </si>
   <si>
     <t>com.lenovo.smartnavigation</t>
@@ -2608,10 +2518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F285"/>
+  <dimension ref="A1:F270"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A210" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A221" sqref="A221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2640,7 +2550,7 @@
         <v>224</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>717</v>
+        <v>687</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -2651,10 +2561,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>85</v>
@@ -2665,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>68</v>
@@ -2679,10 +2589,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>75</v>
@@ -2693,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>668</v>
+        <v>642</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>176</v>
@@ -2707,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>79</v>
@@ -2724,7 +2634,7 @@
         <v>232</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>8</v>
@@ -2738,7 +2648,7 @@
         <v>248</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>18</v>
@@ -2749,10 +2659,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>3</v>
@@ -2763,10 +2673,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>94</v>
@@ -2777,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>716</v>
+        <v>686</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>223</v>
@@ -2791,10 +2701,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>3</v>
@@ -2805,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>71</v>
@@ -2819,10 +2729,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>59</v>
@@ -2833,10 +2743,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>89</v>
@@ -2847,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>53</v>
@@ -2861,10 +2771,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>636</v>
+        <v>614</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>144</v>
@@ -2875,10 +2785,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>270</v>
+        <v>421</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>530</v>
+        <v>636</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>3</v>
@@ -2889,10 +2799,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>431</v>
+        <v>237</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>661</v>
+        <v>488</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>3</v>
@@ -2903,10 +2813,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>503</v>
+        <v>477</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>3</v>
@@ -2917,10 +2827,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>3</v>
@@ -2931,13 +2841,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>233</v>
+        <v>296</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>499</v>
+        <v>534</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2945,13 +2855,13 @@
         <v>0</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>300</v>
+        <v>455</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>553</v>
+        <v>667</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>62</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2959,13 +2869,13 @@
         <v>0</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>468</v>
+        <v>424</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>695</v>
+        <v>638</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2973,13 +2883,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>434</v>
+        <v>386</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>663</v>
+        <v>608</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2987,13 +2897,13 @@
         <v>0</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>392</v>
+        <v>269</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>629</v>
+        <v>514</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -3001,13 +2911,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -3015,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>562</v>
+        <v>527</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -3029,13 +2939,13 @@
         <v>0</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>292</v>
+        <v>350</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>546</v>
+        <v>576</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -3043,13 +2953,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>3</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -3057,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>625</v>
+        <v>597</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>131</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -3071,13 +2981,13 @@
         <v>0</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>379</v>
+        <v>252</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>618</v>
+        <v>500</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -3085,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -3099,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>539</v>
+        <v>577</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -3113,13 +3023,13 @@
         <v>0</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>596</v>
+        <v>619</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -3127,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -3141,13 +3051,13 @@
         <v>0</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>671</v>
+        <v>685</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>179</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -3155,13 +3065,13 @@
         <v>0</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>715</v>
+        <v>317</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>222</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -3169,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>321</v>
+        <v>476</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>321</v>
+        <v>476</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>83</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -3183,13 +3093,13 @@
         <v>0</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>491</v>
+        <v>297</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>491</v>
+        <v>297</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>221</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -3197,13 +3107,13 @@
         <v>0</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>301</v>
+        <v>384</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>301</v>
+        <v>384</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -3211,13 +3121,13 @@
         <v>0</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>390</v>
+        <v>472</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>390</v>
+        <v>472</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>135</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -3225,13 +3135,13 @@
         <v>0</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>487</v>
+        <v>432</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>487</v>
+        <v>432</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -3239,13 +3149,13 @@
         <v>0</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>443</v>
+        <v>227</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>443</v>
+        <v>227</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>178</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -3253,13 +3163,13 @@
         <v>0</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>227</v>
+        <v>391</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>227</v>
+        <v>391</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -3267,13 +3177,13 @@
         <v>0</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>397</v>
+        <v>316</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>397</v>
+        <v>316</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -3281,13 +3191,13 @@
         <v>0</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>320</v>
+        <v>382</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>320</v>
+        <v>382</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -3295,13 +3205,13 @@
         <v>0</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -3309,13 +3219,13 @@
         <v>0</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>420</v>
+        <v>333</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>420</v>
+        <v>333</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -3323,13 +3233,13 @@
         <v>0</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -3337,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -3351,13 +3261,13 @@
         <v>0</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>396</v>
+        <v>334</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>396</v>
+        <v>334</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -3365,13 +3275,13 @@
         <v>0</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>338</v>
+        <v>414</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>338</v>
+        <v>414</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -3379,13 +3289,13 @@
         <v>0</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>421</v>
+        <v>388</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>421</v>
+        <v>388</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -3393,13 +3303,13 @@
         <v>0</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -3407,13 +3317,13 @@
         <v>0</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>455</v>
+        <v>251</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>455</v>
+        <v>251</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>188</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -3421,13 +3331,13 @@
         <v>0</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>251</v>
+        <v>412</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>251</v>
+        <v>412</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -3435,10 +3345,10 @@
         <v>0</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>419</v>
+        <v>243</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>419</v>
+        <v>243</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>3</v>
@@ -3449,10 +3359,10 @@
         <v>0</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>3</v>
@@ -3463,13 +3373,13 @@
         <v>0</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>268</v>
+        <v>422</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>268</v>
+        <v>422</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>3</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -3477,13 +3387,13 @@
         <v>0</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>432</v>
+        <v>353</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>432</v>
+        <v>353</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -3491,13 +3401,13 @@
         <v>0</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>358</v>
+        <v>277</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>358</v>
+        <v>277</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -3505,13 +3415,13 @@
         <v>0</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>281</v>
+        <v>361</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>281</v>
+        <v>361</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -3519,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -3533,13 +3443,13 @@
         <v>0</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>344</v>
+        <v>280</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>344</v>
+        <v>280</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -3547,13 +3457,13 @@
         <v>0</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>284</v>
+        <v>401</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>284</v>
+        <v>401</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -3561,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>408</v>
+        <v>347</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>408</v>
+        <v>347</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -3575,13 +3485,13 @@
         <v>0</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -3589,13 +3499,13 @@
         <v>0</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -3603,13 +3513,13 @@
         <v>0</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>309</v>
+        <v>245</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>309</v>
+        <v>245</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -3617,13 +3527,13 @@
         <v>0</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>245</v>
+        <v>467</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>245</v>
+        <v>467</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -3631,13 +3541,13 @@
         <v>0</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -3645,13 +3555,13 @@
         <v>0</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>483</v>
+        <v>331</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>483</v>
+        <v>331</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>212</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -3659,13 +3569,13 @@
         <v>0</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>335</v>
+        <v>425</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>335</v>
+        <v>425</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -3673,13 +3583,13 @@
         <v>0</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -3687,13 +3597,13 @@
         <v>0</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -3701,13 +3611,13 @@
         <v>0</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>437</v>
+        <v>459</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>437</v>
+        <v>459</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -3715,13 +3625,13 @@
         <v>0</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>473</v>
+        <v>265</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>473</v>
+        <v>265</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>205</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -3729,13 +3639,13 @@
         <v>0</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>266</v>
+        <v>383</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>266</v>
+        <v>383</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -3743,13 +3653,13 @@
         <v>0</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -3757,13 +3667,13 @@
         <v>0</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>403</v>
+        <v>362</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>403</v>
+        <v>362</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -3771,13 +3681,13 @@
         <v>0</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>367</v>
+        <v>274</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>367</v>
+        <v>274</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -3785,13 +3695,13 @@
         <v>0</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>278</v>
+        <v>428</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>278</v>
+        <v>428</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>41</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -3799,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -3813,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>445</v>
+        <v>399</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>445</v>
+        <v>399</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -3827,13 +3737,13 @@
         <v>0</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>406</v>
+        <v>466</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>406</v>
+        <v>466</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -3841,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>481</v>
+        <v>260</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>481</v>
+        <v>260</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>210</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -3855,13 +3765,13 @@
         <v>0</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -3869,13 +3779,13 @@
         <v>0</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>288</v>
+        <v>525</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -3883,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>544</v>
+        <v>521</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -3897,13 +3807,13 @@
         <v>0</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>283</v>
+        <v>344</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>540</v>
+        <v>571</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -3911,13 +3821,13 @@
         <v>0</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>348</v>
+        <v>292</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>590</v>
+        <v>531</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -3925,13 +3835,13 @@
         <v>0</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>550</v>
+        <v>504</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -3939,13 +3849,13 @@
         <v>0</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>256</v>
+        <v>326</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>519</v>
+        <v>558</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -3953,13 +3863,13 @@
         <v>0</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>330</v>
+        <v>236</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>577</v>
+        <v>487</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -3967,13 +3877,13 @@
         <v>0</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>236</v>
+        <v>348</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>502</v>
+        <v>574</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -3981,13 +3891,13 @@
         <v>0</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>593</v>
+        <v>567</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -3995,13 +3905,13 @@
         <v>0</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -4009,13 +3919,13 @@
         <v>0</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -4023,13 +3933,13 @@
         <v>0</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -4037,13 +3947,13 @@
         <v>0</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -4051,13 +3961,13 @@
         <v>0</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>342</v>
+        <v>475</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>187</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -4065,13 +3975,13 @@
         <v>0</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>490</v>
+        <v>249</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>714</v>
+        <v>498</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -4082,10 +3992,10 @@
         <v>249</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>513</v>
+        <v>560</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -4096,10 +4006,10 @@
         <v>249</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>579</v>
+        <v>661</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>92</v>
+        <v>196</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -4110,10 +4020,10 @@
         <v>249</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -4121,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>249</v>
+        <v>324</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>709</v>
+        <v>557</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>215</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -4135,10 +4045,10 @@
         <v>0</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>328</v>
+        <v>238</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>576</v>
+        <v>489</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>3</v>
@@ -4149,10 +4059,10 @@
         <v>0</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>504</v>
+        <v>478</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>3</v>
@@ -4163,13 +4073,13 @@
         <v>0</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -4177,13 +4087,13 @@
         <v>0</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>247</v>
+        <v>387</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>511</v>
+        <v>609</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -4191,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>630</v>
+        <v>607</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -4205,13 +4115,13 @@
         <v>0</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>628</v>
+        <v>602</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>136</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -4219,10 +4129,10 @@
         <v>0</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>383</v>
+        <v>289</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>623</v>
+        <v>528</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>3</v>
@@ -4233,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>293</v>
+        <v>392</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>547</v>
+        <v>611</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -4247,13 +4157,13 @@
         <v>0</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>398</v>
+        <v>429</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>142</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -4261,13 +4171,13 @@
         <v>0</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>440</v>
+        <v>378</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>667</v>
+        <v>603</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>3</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -4275,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>384</v>
+        <v>449</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>624</v>
+        <v>660</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>130</v>
+        <v>195</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -4289,13 +4199,13 @@
         <v>0</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>462</v>
+        <v>381</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>688</v>
+        <v>606</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>195</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -4303,13 +4213,13 @@
         <v>0</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>387</v>
+        <v>240</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>627</v>
+        <v>491</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -4317,13 +4227,13 @@
         <v>0</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>240</v>
+        <v>367</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>506</v>
+        <v>591</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -4331,13 +4241,13 @@
         <v>0</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>372</v>
+        <v>299</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>611</v>
+        <v>536</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -4345,13 +4255,13 @@
         <v>0</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>555</v>
+        <v>508</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -4359,13 +4269,13 @@
         <v>0</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>261</v>
+        <v>322</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>523</v>
+        <v>555</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -4373,13 +4283,13 @@
         <v>0</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>326</v>
+        <v>439</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>574</v>
+        <v>650</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -4387,10 +4297,10 @@
         <v>0</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>451</v>
+        <v>357</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>677</v>
+        <v>583</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>3</v>
@@ -4401,13 +4311,13 @@
         <v>0</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>362</v>
+        <v>416</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>603</v>
+        <v>631</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>3</v>
+        <v>163</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -4415,13 +4325,13 @@
         <v>0</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>423</v>
+        <v>258</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>653</v>
+        <v>506</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -4429,13 +4339,13 @@
         <v>0</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>258</v>
+        <v>375</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>521</v>
+        <v>599</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -4443,13 +4353,13 @@
         <v>0</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>381</v>
+        <v>241</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>620</v>
+        <v>492</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -4457,13 +4367,13 @@
         <v>0</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>241</v>
+        <v>371</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>507</v>
+        <v>595</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -4471,13 +4381,13 @@
         <v>0</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>377</v>
+        <v>270</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>616</v>
+        <v>515</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -4485,13 +4395,13 @@
         <v>0</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>534</v>
+        <v>505</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -4499,13 +4409,13 @@
         <v>0</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>257</v>
+        <v>415</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>520</v>
+        <v>630</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -4513,13 +4423,13 @@
         <v>0</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -4527,13 +4437,13 @@
         <v>0</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -4541,13 +4451,13 @@
         <v>0</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>699</v>
+        <v>680</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -4555,13 +4465,13 @@
         <v>0</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>486</v>
+        <v>253</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>710</v>
+        <v>501</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>216</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -4569,10 +4479,10 @@
         <v>0</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>253</v>
+        <v>356</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>516</v>
+        <v>582</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>3</v>
@@ -4583,10 +4493,10 @@
         <v>0</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>3</v>
@@ -4597,13 +4507,13 @@
         <v>0</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>601</v>
+        <v>548</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -4611,13 +4521,13 @@
         <v>0</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>316</v>
+        <v>264</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>567</v>
+        <v>511</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -4625,13 +4535,13 @@
         <v>0</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -4639,13 +4549,13 @@
         <v>0</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -4653,13 +4563,13 @@
         <v>0</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -4667,13 +4577,13 @@
         <v>0</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>599</v>
+        <v>618</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -4681,13 +4591,13 @@
         <v>0</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>407</v>
+        <v>364</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>640</v>
+        <v>588</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>150</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -4695,13 +4605,13 @@
         <v>0</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>369</v>
+        <v>315</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>608</v>
+        <v>551</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -4709,13 +4619,13 @@
         <v>0</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>319</v>
+        <v>397</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>570</v>
+        <v>615</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -4723,13 +4633,13 @@
         <v>0</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>404</v>
+        <v>300</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>637</v>
+        <v>537</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>146</v>
+        <v>65</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -4737,13 +4647,13 @@
         <v>0</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>556</v>
+        <v>518</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -4751,13 +4661,13 @@
         <v>0</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -4765,13 +4675,13 @@
         <v>0</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>285</v>
+        <v>408</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>541</v>
+        <v>626</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -4779,13 +4689,13 @@
         <v>0</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>415</v>
+        <v>318</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>648</v>
+        <v>552</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -4793,13 +4703,13 @@
         <v>0</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>322</v>
+        <v>451</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>571</v>
+        <v>663</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>84</v>
+        <v>198</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -4807,13 +4717,13 @@
         <v>0</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>464</v>
+        <v>302</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>691</v>
+        <v>302</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>198</v>
+        <v>67</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -4821,13 +4731,13 @@
         <v>0</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -4835,13 +4745,13 @@
         <v>0</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>325</v>
+        <v>556</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -4849,13 +4759,13 @@
         <v>0</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>575</v>
+        <v>529</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -4863,13 +4773,13 @@
         <v>0</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>548</v>
+        <v>516</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -4877,13 +4787,13 @@
         <v>0</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>275</v>
+        <v>404</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>535</v>
+        <v>622</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -4891,13 +4801,13 @@
         <v>0</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>3</v>
+        <v>154</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -4905,13 +4815,13 @@
         <v>0</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>643</v>
+        <v>617</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -4919,13 +4829,13 @@
         <v>0</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>639</v>
+        <v>666</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>148</v>
+        <v>200</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -4933,13 +4843,13 @@
         <v>0</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>467</v>
+        <v>230</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>694</v>
+        <v>481</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>200</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -4947,13 +4857,13 @@
         <v>0</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>230</v>
+        <v>370</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>496</v>
+        <v>594</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -4961,13 +4871,13 @@
         <v>0</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>376</v>
+        <v>447</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>615</v>
+        <v>658</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -4975,13 +4885,13 @@
         <v>0</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>686</v>
+        <v>659</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -4989,13 +4899,13 @@
         <v>0</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>461</v>
+        <v>389</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>687</v>
+        <v>610</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>194</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -5003,10 +4913,10 @@
         <v>0</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>395</v>
+        <v>255</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>631</v>
+        <v>503</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>3</v>
@@ -5017,13 +4927,13 @@
         <v>0</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>255</v>
+        <v>438</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>518</v>
+        <v>649</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>3</v>
+        <v>184</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -5031,13 +4941,13 @@
         <v>0</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>450</v>
+        <v>228</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>676</v>
+        <v>479</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>184</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -5045,13 +4955,13 @@
         <v>0</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -5062,10 +4972,10 @@
         <v>254</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -5076,10 +4986,10 @@
         <v>254</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -5090,10 +5000,10 @@
         <v>254</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>565</v>
+        <v>681</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>76</v>
+        <v>218</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -5101,13 +5011,13 @@
         <v>0</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>254</v>
+        <v>470</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>711</v>
+        <v>678</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -5115,13 +5025,13 @@
         <v>0</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>485</v>
+        <v>446</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>708</v>
+        <v>657</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -5129,13 +5039,13 @@
         <v>0</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>685</v>
+        <v>647</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -5143,13 +5053,13 @@
         <v>0</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>674</v>
+        <v>633</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -5157,13 +5067,13 @@
         <v>0</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -5171,13 +5081,13 @@
         <v>0</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>454</v>
+        <v>291</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>680</v>
+        <v>530</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>186</v>
+        <v>57</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -5185,13 +5095,13 @@
         <v>0</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>295</v>
+        <v>250</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>549</v>
+        <v>499</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -5199,13 +5109,13 @@
         <v>0</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>514</v>
+        <v>635</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -5213,13 +5123,13 @@
         <v>0</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>429</v>
+        <v>307</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>659</v>
+        <v>542</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -5227,13 +5137,13 @@
         <v>0</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>561</v>
+        <v>538</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -5241,13 +5151,13 @@
         <v>0</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>305</v>
+        <v>435</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>557</v>
+        <v>646</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -5255,13 +5165,13 @@
         <v>0</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>673</v>
+        <v>634</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>3</v>
+        <v>166</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -5269,13 +5179,13 @@
         <v>0</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>427</v>
+        <v>337</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>657</v>
+        <v>566</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -5283,13 +5193,13 @@
         <v>0</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -5297,13 +5207,13 @@
         <v>0</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -5311,13 +5221,13 @@
         <v>0</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>634</v>
+        <v>586</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -5325,13 +5235,13 @@
         <v>0</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>365</v>
+        <v>262</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>606</v>
+        <v>509</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -5339,13 +5249,13 @@
         <v>0</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>263</v>
+        <v>464</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -5353,13 +5263,13 @@
         <v>0</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>479</v>
+        <v>268</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>705</v>
+        <v>268</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -5367,13 +5277,13 @@
         <v>0</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -5381,13 +5291,13 @@
         <v>0</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>282</v>
+        <v>437</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>282</v>
+        <v>648</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>45</v>
+        <v>183</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -5395,13 +5305,13 @@
         <v>0</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>449</v>
+        <v>309</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>675</v>
+        <v>544</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>183</v>
+        <v>74</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -5409,13 +5319,13 @@
         <v>0</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -5423,13 +5333,13 @@
         <v>0</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>356</v>
+        <v>229</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>598</v>
+        <v>480</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>113</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -5437,10 +5347,10 @@
         <v>0</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>229</v>
+        <v>453</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>495</v>
+        <v>665</v>
       </c>
       <c r="D202" s="5" t="s">
         <v>3</v>
@@ -5451,13 +5361,13 @@
         <v>0</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>466</v>
+        <v>417</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>693</v>
+        <v>632</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -5465,13 +5375,13 @@
         <v>0</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>424</v>
+        <v>246</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>654</v>
+        <v>495</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>164</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
@@ -5479,10 +5389,10 @@
         <v>0</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>246</v>
+        <v>460</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>510</v>
+        <v>671</v>
       </c>
       <c r="D205" s="5" t="s">
         <v>3</v>
@@ -5493,10 +5403,10 @@
         <v>0</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>474</v>
+        <v>244</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>700</v>
+        <v>494</v>
       </c>
       <c r="D206" s="5" t="s">
         <v>3</v>
@@ -5507,13 +5417,13 @@
         <v>0</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>244</v>
+        <v>473</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>509</v>
+        <v>682</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -5521,13 +5431,13 @@
         <v>0</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>712</v>
+        <v>674</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
@@ -5535,13 +5445,13 @@
         <v>0</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>478</v>
+        <v>231</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>704</v>
+        <v>482</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>208</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -5549,13 +5459,13 @@
         <v>0</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>231</v>
+        <v>423</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>497</v>
+        <v>637</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>7</v>
+        <v>168</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -5563,13 +5473,13 @@
         <v>0</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -5577,13 +5487,13 @@
         <v>0</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>456</v>
+        <v>336</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>682</v>
+        <v>565</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>189</v>
+        <v>100</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -5591,13 +5501,13 @@
         <v>0</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>340</v>
+        <v>434</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>584</v>
+        <v>645</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>100</v>
+        <v>181</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -5605,13 +5515,13 @@
         <v>0</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>471</v>
+        <v>410</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>698</v>
+        <v>628</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>3</v>
+        <v>158</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -5619,13 +5529,13 @@
         <v>0</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>446</v>
+        <v>406</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>672</v>
+        <v>624</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -5633,13 +5543,13 @@
         <v>0</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>3</v>
+        <v>203</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -5647,13 +5557,13 @@
         <v>0</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>271</v>
+        <v>339</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>531</v>
+        <v>568</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -5661,55 +5571,55 @@
         <v>0</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>413</v>
+        <v>372</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>646</v>
+        <v>596</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>155</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>343</v>
+        <v>469</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>587</v>
+        <v>677</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>103</v>
+        <v>213</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -5717,27 +5627,27 @@
         <v>0</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>458</v>
+        <v>374</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>684</v>
+        <v>598</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>378</v>
+        <v>282</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>617</v>
+        <v>523</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -5745,13 +5655,13 @@
         <v>0</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>439</v>
+        <v>368</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>665</v>
+        <v>592</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>3</v>
+        <v>123</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -5759,13 +5669,13 @@
         <v>0</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>706</v>
+        <v>683</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -5773,13 +5683,13 @@
         <v>0</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>484</v>
+        <v>242</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>707</v>
+        <v>493</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>213</v>
+        <v>15</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -5787,13 +5697,13 @@
         <v>0</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>619</v>
+        <v>593</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -5801,13 +5711,13 @@
         <v>0</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>286</v>
+        <v>346</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>542</v>
+        <v>573</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -5815,13 +5725,13 @@
         <v>0</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>373</v>
+        <v>266</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>612</v>
+        <v>512</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>123</v>
+        <v>34</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -5829,13 +5739,13 @@
         <v>0</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>489</v>
+        <v>263</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>713</v>
+        <v>510</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>220</v>
+        <v>31</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -5843,13 +5753,13 @@
         <v>0</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>242</v>
+        <v>456</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>508</v>
+        <v>668</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>15</v>
+        <v>202</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -5857,13 +5767,13 @@
         <v>0</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>269</v>
+        <v>329</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>529</v>
+        <v>561</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -5871,13 +5781,13 @@
         <v>0</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>124</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -5885,13 +5795,13 @@
         <v>0</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>350</v>
+        <v>239</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>592</v>
+        <v>490</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -5899,13 +5809,13 @@
         <v>0</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>267</v>
+        <v>376</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>528</v>
+        <v>601</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -5913,13 +5823,13 @@
         <v>0</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>264</v>
+        <v>363</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>526</v>
+        <v>587</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -5927,13 +5837,13 @@
         <v>0</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>469</v>
+        <v>304</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>696</v>
+        <v>540</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>202</v>
+        <v>69</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -5941,13 +5851,13 @@
         <v>0</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>597</v>
+        <v>547</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -5955,13 +5865,13 @@
         <v>0</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>426</v>
+        <v>335</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>656</v>
+        <v>564</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -5969,13 +5879,13 @@
         <v>0</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>580</v>
+        <v>639</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -5983,13 +5893,13 @@
         <v>0</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>412</v>
+        <v>332</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>645</v>
+        <v>563</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>3</v>
+        <v>96</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -5997,13 +5907,13 @@
         <v>0</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>239</v>
+        <v>328</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>505</v>
+        <v>559</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -6011,13 +5921,13 @@
         <v>0</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>382</v>
+        <v>319</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>622</v>
+        <v>553</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>129</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -6025,13 +5935,13 @@
         <v>0</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -6039,13 +5949,13 @@
         <v>0</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>308</v>
+        <v>234</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>559</v>
+        <v>485</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -6053,13 +5963,13 @@
         <v>0</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>315</v>
+        <v>366</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -6067,27 +5977,27 @@
         <v>0</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>339</v>
+        <v>259</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>664</v>
+        <v>507</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>170</v>
+        <v>27</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -6095,13 +6005,13 @@
         <v>0</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -6109,13 +6019,13 @@
         <v>0</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>332</v>
+        <v>407</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>578</v>
+        <v>625</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -6123,13 +6033,13 @@
         <v>0</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -6137,13 +6047,13 @@
         <v>0</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>702</v>
+        <v>672</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>3</v>
+        <v>206</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -6151,13 +6061,13 @@
         <v>0</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>347</v>
+        <v>283</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>589</v>
+        <v>524</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -6165,13 +6075,13 @@
         <v>0</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>234</v>
+        <v>452</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>500</v>
+        <v>664</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>9</v>
+        <v>199</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -6179,13 +6089,13 @@
         <v>0</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>430</v>
+        <v>287</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>660</v>
+        <v>526</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -6193,13 +6103,13 @@
         <v>0</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>371</v>
+        <v>341</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>610</v>
+        <v>569</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -6207,13 +6117,13 @@
         <v>0</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>370</v>
+        <v>275</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>609</v>
+        <v>519</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -6221,13 +6131,13 @@
         <v>0</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>262</v>
+        <v>411</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>524</v>
+        <v>629</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>3</v>
+        <v>159</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -6235,13 +6145,13 @@
         <v>0</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>259</v>
+        <v>450</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>522</v>
+        <v>662</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -6249,13 +6159,13 @@
         <v>0</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>353</v>
+        <v>440</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>594</v>
+        <v>651</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>111</v>
+        <v>185</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -6263,13 +6173,13 @@
         <v>0</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>399</v>
+        <v>235</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>633</v>
+        <v>486</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -6277,13 +6187,13 @@
         <v>0</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>374</v>
+        <v>402</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>3</v>
+        <v>153</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -6291,13 +6201,13 @@
         <v>0</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>452</v>
+        <v>345</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>678</v>
+        <v>572</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -6305,13 +6215,13 @@
         <v>0</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>414</v>
+        <v>444</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>3</v>
+        <v>190</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -6319,13 +6229,13 @@
         <v>0</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>604</v>
+        <v>580</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>116</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -6333,13 +6243,13 @@
         <v>0</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>475</v>
+        <v>394</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>701</v>
+        <v>613</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -6347,13 +6257,13 @@
         <v>0</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -6361,13 +6271,13 @@
         <v>0</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>465</v>
+        <v>409</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>692</v>
+        <v>627</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -6375,13 +6285,13 @@
         <v>0</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -6389,226 +6299,17 @@
         <v>0</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>345</v>
+        <v>462</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>588</v>
+        <v>673</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A271" s="4">
-        <v>0</v>
-      </c>
-      <c r="B271" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C271" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="D271" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A272" s="4">
-        <v>0</v>
-      </c>
-      <c r="B272" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="C272" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="D272" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A273" s="4">
-        <v>0</v>
-      </c>
-      <c r="B273" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="C273" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="D273" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A274" s="4">
-        <v>0</v>
-      </c>
-      <c r="B274" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="C274" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="D274" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A275" s="4">
-        <v>0</v>
-      </c>
-      <c r="B275" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="C275" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="D275" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A276" s="4">
-        <v>0</v>
-      </c>
-      <c r="B276" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C276" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="D276" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A277" s="4">
-        <v>0</v>
-      </c>
-      <c r="B277" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="C277" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="D277" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A278" s="4">
-        <v>0</v>
-      </c>
-      <c r="B278" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="C278" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="D278" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A279" s="4">
-        <v>0</v>
-      </c>
-      <c r="B279" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="C279" s="5" t="s">
-        <v>683</v>
-      </c>
-      <c r="D279" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A280" s="4">
-        <v>0</v>
-      </c>
-      <c r="B280" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="C280" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="D280" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A281" s="4">
-        <v>0</v>
-      </c>
-      <c r="B281" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C281" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="D281" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A282" s="4">
-        <v>0</v>
-      </c>
-      <c r="B282" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C282" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="D282" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A283" s="4">
-        <v>0</v>
-      </c>
-      <c r="B283" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="C283" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="D283" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A284" s="4">
-        <v>0</v>
-      </c>
-      <c r="B284" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C284" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="D284" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A285" s="4">
-        <v>0</v>
-      </c>
-      <c r="B285" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="C285" s="5" t="s">
-        <v>703</v>
-      </c>
-      <c r="D285" s="5" t="s">
         <v>207</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:D2" xr:uid="{079FBDB0-AB14-4A18-8695-FCBA3D249679}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
